--- a/Selenium/Bugs/data/style/걸그룹.xlsx
+++ b/Selenium/Bugs/data/style/걸그룹.xlsx
@@ -814,7 +814,7 @@
     <t>겁나 (feat. 매드클라운)</t>
   </si>
   <si>
-    <t>Shooting Star</t>
+    <t xml:space="preserve">Shooting Star </t>
   </si>
   <si>
     <t>Whoo! (With Eric Benet)</t>
